--- a/biology/Médecine/Ernest_Besnier/Ernest_Besnier.xlsx
+++ b/biology/Médecine/Ernest_Besnier/Ernest_Besnier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernest-Henri Besnier, né à Honfleur (Calvados) le 21 avril 1831 et mort le 15 mai 1909 dans le 8e arrondissement de Paris, est un médecin et dermatologue français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Mathieu-Louis-François Besnier, contrôleur principal des Douanes à Orléans, et de Marie-Thérèse-Virginie Lefevre, son frère Alfred Besnier, sera directeur au Ministère des Postes et vice-président de la Compagnie des messageries maritimes (1887-1905). Il épouse Marguerite Burat (1837-1909), sœur du financier collectionneur Louis Burat et nièce du géologue Amédée Burat (1809-1883), professeur à l’École centrale des arts et métiers.
 Après des études secondaires à Marseille et des études de médecine à Paris, Besnier devient interne des hôpitaux de Paris en 1855 puis docteur en 1857. Il reçoit le prix Antoine Portal en 1859 pour son mémoire sur « les étranglements internes ». Il est admis au Bureau central en 1861 et devient médecin des hôpitaux de Paris en 1863.
@@ -519,7 +533,7 @@
 Malgré tout son talent et toute sa science qui lui valent fréquemment dans les congrès internationaux les manifestations les plus flatteuses, il n'est pas appelé à professer à la Faculté de médecine où ses connaissances, ses travaux et sa grande autorité semblaient lui assigner une place de premier plan.
 Officier de la Légion d'honneur[Quand ?] et membre de l’Académie de médecine en 1881. Il est vice-président de la Société médicale d’observations, secrétaire de la Société médicale d’émulation et membre de la Société anatomique. Il prend part à plusieurs congrès médicaux : Londres, Berlin… et fonde les Annales de la dermatologie.
 Ernest Besnier donne son nom à la maladie de Besnier-Boeck-Schaumann qu'il nomme alors "lupus pernio", aujourd'hui appelée « sarcoïdose », affection du système réticulo-endothélial, dont on ne connaît ni la cause ni le mode de production et qui se caractérise par la présence dans les organes atteints de petites tumeurs conjonctives.
-Il meurt le 15 mai 1909 en son domicile dans le 8e arrondissement de Paris[1].
+Il meurt le 15 mai 1909 en son domicile dans le 8e arrondissement de Paris.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Éponymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>érythème marginé discoïde de Besnier - synonymes : erythema annulare rheumaticum
 maladie de Besnier-Boeck-Schaumann - synonymes : sarcoïdose
